--- a/DOC/Arabic/Google/Google VS Rosette2.xlsx
+++ b/DOC/Arabic/Google/Google VS Rosette2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Regular Verb Case" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="173">
   <si>
     <t>Regular Verb Case</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,54 +35,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>تسافر</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>تسافرين</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>تسافري</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>تسافرون</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>تسافروا</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>تسافرن</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>يسافر</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>يسافران</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>يسافرا</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>تسافران</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>تسافرا</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>يسافرون</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>يسافروا</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,18 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>نسافر</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>سافرت</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>سافرتم</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>سافرتن</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>سافرا</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>سافرتا</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,51 +98,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>سيارتي</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>سيارته</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>سيارتها</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>سيارتهما</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>سياراتهنا</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>سيارتهم</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>سيارتنا</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>سياراتهن</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>سياراتكم</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>سياراتكن</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>سيارتك</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>سياراتكما</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -453,30 +357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>سفر</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>أسافر</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>سافري</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ahmed Google Test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -509,10 +389,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4/17 (29.41%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1/17 (5.88%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -558,10 +434,6 @@
   </si>
   <si>
     <t>1/34 (2.94%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4/17(23.53%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -832,10 +704,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>If hightlight, check the hightlighted word. If no hightlight, check the page if contain the word or its inflection.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="26"/>
@@ -893,12 +761,288 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>3/34 (8.82%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/34 (11.76%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>سيارات</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>قنا</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>،</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/17(23.53%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/17 (23.53%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/17 (17.64%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>سفر</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>أسافر</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/17(23.53%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/34 (2.94%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/34 (2.94%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>سفر</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/34 (2.94%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>سافرت</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>سياراتكنا</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>سيارتها</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/17(41.18%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/17(41.18%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/17 (35.29%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>أسافر</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>تسافر</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>سافرت</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>سافرت</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>سافرت</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>سافرا</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>سفر</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>أسافر</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>تسافرين</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>تسافري</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>تسافرون</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>تسافروا</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>يسافر</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>يسافرا</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>تسافران</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>تسافرا</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>يسافرون</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>نسافر</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>سافرتم</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>سافر</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>سافروا</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14/34(58.33%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>سيارة</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>سياراتكم</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>سيارتك</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>سيارتي</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>سيارته</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>سيارتهم</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>سيارتنا</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>سياراتهن</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>سياراتكن</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>سياراتكما</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Highlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>سياراتكنا</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>سياراتهنا</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If highlight, check the hightlighted word. If no hightlight, check the page if contain the word or its inflection.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special test case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1083,8 +1227,25 @@
       <family val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1121,6 +1282,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1149,7 +1316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1190,34 +1357,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1232,19 +1409,13 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1259,11 +1430,23 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1547,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1557,551 +1740,551 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E1" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="E1" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="E5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="F6" s="13"/>
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="2" t="s">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>18</v>
+      <c r="D23" s="24" t="s">
+        <v>130</v>
       </c>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>18</v>
+      <c r="D24" s="24" t="s">
+        <v>138</v>
       </c>
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>18</v>
+      <c r="D25" s="24" t="s">
+        <v>139</v>
       </c>
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>18</v>
+      <c r="D29" s="24" t="s">
+        <v>140</v>
       </c>
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="G36" s="13"/>
       <c r="I36" s="18"/>
       <c r="J36" s="13"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E39" s="9" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E40" s="9" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E41" s="25" t="s">
-        <v>73</v>
+      <c r="E41" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E42" s="25"/>
+      <c r="E42" s="26"/>
       <c r="F42" s="12" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E43" s="25"/>
+      <c r="E43" s="26"/>
       <c r="F43" s="12" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E44" s="25"/>
+      <c r="E44" s="26"/>
       <c r="F44" s="12" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E45" s="25"/>
+      <c r="E45" s="26"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E46" s="25"/>
+      <c r="E46" s="26"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E47" s="25"/>
+      <c r="E47" s="26"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E48" s="25"/>
+      <c r="E48" s="26"/>
     </row>
     <row r="49" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E49" s="25"/>
+      <c r="E49" s="26"/>
     </row>
     <row r="50" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E50" s="25"/>
+      <c r="E50" s="26"/>
     </row>
     <row r="51" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E51" s="25"/>
+      <c r="E51" s="26"/>
     </row>
     <row r="52" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E52" s="25"/>
+      <c r="E52" s="26"/>
     </row>
     <row r="55" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="L55" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="O55" s="24"/>
+      <c r="L55" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="O55" s="25"/>
     </row>
     <row r="56" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
     </row>
     <row r="57" spans="5:15" x14ac:dyDescent="0.2">
       <c r="K57" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L57" s="24">
+        <v>24</v>
+      </c>
+      <c r="L57" s="25">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24">
+      <c r="M57" s="25"/>
+      <c r="N57" s="25">
         <v>0.1176</v>
       </c>
-      <c r="O57" s="24"/>
+      <c r="O57" s="25"/>
     </row>
     <row r="58" spans="5:15" x14ac:dyDescent="0.2">
       <c r="K58" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L58" s="24">
+        <v>13</v>
+      </c>
+      <c r="L58" s="25">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24">
+      <c r="M58" s="25"/>
+      <c r="N58" s="25">
         <v>0.1176</v>
       </c>
-      <c r="O58" s="24"/>
+      <c r="O58" s="25"/>
     </row>
     <row r="59" spans="5:15" x14ac:dyDescent="0.2">
       <c r="K59" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L59" s="24">
+      <c r="L59" s="25">
         <v>0.94099999999999995</v>
       </c>
-      <c r="M59" s="24"/>
-      <c r="N59" s="24">
+      <c r="M59" s="25"/>
+      <c r="N59" s="25">
         <v>0.32350000000000001</v>
       </c>
-      <c r="O59" s="24"/>
+      <c r="O59" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2138,141 +2321,141 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E2" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="E2" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="15"/>
-      <c r="I2" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="I2" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="24"/>
+      <c r="A5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="25"/>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="4"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4"/>
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E7" s="4"/>
       <c r="G7" s="4"/>
       <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="G8" s="4"/>
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="E10" s="4"/>
       <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8"/>
@@ -2282,229 +2465,229 @@
       <c r="O13" s="14"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="F16" s="4"/>
       <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="G21" s="3"/>
       <c r="K21" s="17"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E22" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E23" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E24" s="10" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F25" s="11" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F26" s="11" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G27" s="11" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G28" s="11" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G29" s="9" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G30" s="12" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J32" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="N32" s="24"/>
+      <c r="J32" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="25"/>
     </row>
     <row r="33" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
     </row>
     <row r="34" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
     </row>
     <row r="35" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K35" s="24">
+        <v>16</v>
+      </c>
+      <c r="K35" s="25">
         <v>0.88200000000000001</v>
       </c>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24">
+      <c r="L35" s="25"/>
+      <c r="M35" s="25">
         <v>0.29409999999999997</v>
       </c>
-      <c r="N35" s="24"/>
+      <c r="N35" s="25"/>
     </row>
     <row r="36" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K36" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="N36" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="K36" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="N36" s="25"/>
     </row>
     <row r="37" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K37" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="N37" s="24"/>
+        <v>21</v>
+      </c>
+      <c r="K37" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="N37" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2529,426 +2712,767 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10:Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="T3" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="T10" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="54"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="28">
         <v>0.1216</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="28">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
       <c r="O11" s="28">
         <v>0.31369999999999998</v>
       </c>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="54"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="54"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
     </row>
-    <row r="21" spans="11:16" x14ac:dyDescent="0.2">
-      <c r="K21" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-    </row>
-    <row r="22" spans="11:16" x14ac:dyDescent="0.2">
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-    </row>
-    <row r="23" spans="11:16" x14ac:dyDescent="0.2">
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-    </row>
-    <row r="24" spans="11:16" x14ac:dyDescent="0.2">
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-    </row>
-    <row r="25" spans="11:16" x14ac:dyDescent="0.2">
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-    </row>
-    <row r="26" spans="11:16" x14ac:dyDescent="0.2">
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-    </row>
-    <row r="27" spans="11:16" x14ac:dyDescent="0.2">
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-    </row>
-    <row r="28" spans="11:16" x14ac:dyDescent="0.2">
-      <c r="K28" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-    </row>
-    <row r="29" spans="11:16" x14ac:dyDescent="0.2">
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-    </row>
-    <row r="30" spans="11:16" x14ac:dyDescent="0.2">
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28">
+        <v>0.31780000000000003</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="28">
+        <v>0.1225</v>
+      </c>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="28">
+        <v>0.31369999999999998</v>
+      </c>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H31" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+    </row>
+    <row r="33" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+    </row>
+    <row r="34" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+    </row>
+    <row r="35" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+    </row>
+    <row r="36" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+    </row>
+    <row r="37" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E1:I4"/>
-    <mergeCell ref="J1:N4"/>
+  <mergeCells count="71">
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:N7"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="O1:R4"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="O9:R9"/>
     <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A5:B7"/>
     <mergeCell ref="A11:D12"/>
     <mergeCell ref="E9:I9"/>
     <mergeCell ref="J9:N9"/>
@@ -2956,21 +3480,61 @@
     <mergeCell ref="J10:N10"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A5:B7"/>
     <mergeCell ref="A8:B10"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="K21:P27"/>
-    <mergeCell ref="K28:P30"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="T3:Y9"/>
+    <mergeCell ref="T10:Y12"/>
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="E11:I12"/>
     <mergeCell ref="J11:N12"/>
     <mergeCell ref="O11:R12"/>
     <mergeCell ref="O10:R10"/>
+    <mergeCell ref="O1:R4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="E1:I4"/>
+    <mergeCell ref="J1:N4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="A15:D18"/>
+    <mergeCell ref="E15:I18"/>
+    <mergeCell ref="J15:N18"/>
+    <mergeCell ref="O15:R18"/>
+    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="A22:B24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="E25:I26"/>
+    <mergeCell ref="J25:N26"/>
+    <mergeCell ref="O25:R26"/>
+    <mergeCell ref="H31:M37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2982,32 +3546,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:M22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
+      <c r="A1" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
@@ -3016,19 +3580,19 @@
       <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
@@ -3037,25 +3601,25 @@
       <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
+      <c r="A3" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
@@ -3064,21 +3628,21 @@
       <c r="S3" s="22"/>
     </row>
     <row r="4" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
@@ -3087,23 +3651,23 @@
       <c r="S4" s="21"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
@@ -3112,21 +3676,21 @@
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
@@ -3135,21 +3699,21 @@
       <c r="S6" s="21"/>
     </row>
     <row r="7" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
@@ -3158,21 +3722,21 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
@@ -3181,21 +3745,21 @@
       <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
@@ -3204,23 +3768,23 @@
       <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
       <c r="N10" s="21" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
@@ -3229,25 +3793,25 @@
       <c r="S10" s="21"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
       <c r="N11" s="21" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
@@ -3256,21 +3820,21 @@
       <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
@@ -3279,23 +3843,23 @@
       <c r="S12" s="21"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
       <c r="N13" s="21" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
@@ -3304,27 +3868,27 @@
       <c r="S13" s="21"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
+      <c r="A14" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
       <c r="N14" s="21" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
@@ -3333,21 +3897,21 @@
       <c r="S14" s="21"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
@@ -3356,23 +3920,23 @@
       <c r="S15" s="21"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
       <c r="N16" s="21" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
@@ -3381,25 +3945,25 @@
       <c r="S16" s="21"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
       <c r="N17" s="21" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
@@ -3408,21 +3972,21 @@
       <c r="S17" s="21"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
       <c r="N18" s="21"/>
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
@@ -3431,21 +3995,21 @@
       <c r="S18" s="21"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
       <c r="P19" s="21"/>
@@ -3454,23 +4018,23 @@
       <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
       <c r="N20" s="23" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
@@ -3479,23 +4043,23 @@
       <c r="S20" s="21"/>
     </row>
     <row r="21" spans="1:19" ht="33" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
       <c r="N21" s="23" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
@@ -3504,25 +4068,25 @@
       <c r="S21" s="21"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
       <c r="N22" s="21" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
@@ -3531,23 +4095,23 @@
       <c r="S22" s="21"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
       <c r="N23" s="21" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
@@ -3556,23 +4120,23 @@
       <c r="S23" s="21"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
       <c r="N24" s="21" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
@@ -3581,21 +4145,21 @@
       <c r="S24" s="21"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
@@ -3604,23 +4168,23 @@
       <c r="S25" s="21"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
       <c r="N26" s="21" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
@@ -3629,23 +4193,23 @@
       <c r="S26" s="21"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
       <c r="N27" s="21" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
@@ -3654,23 +4218,23 @@
       <c r="S27" s="21"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
       <c r="N28" s="21" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
@@ -3679,23 +4243,23 @@
       <c r="S28" s="21"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
       <c r="N29" s="21" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
@@ -3704,23 +4268,23 @@
       <c r="S29" s="21"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
       <c r="N30" s="21" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
@@ -3762,13 +4326,13 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="C22:G30"/>
     <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
     <mergeCell ref="H23:M23"/>
     <mergeCell ref="H24:M24"/>
     <mergeCell ref="H25:M25"/>
     <mergeCell ref="H26:M26"/>
     <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
